--- a/summaries/genomes/genomeMetaData.xlsx
+++ b/summaries/genomes/genomeMetaData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="2647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="2923">
   <si>
     <t xml:space="preserve">trial</t>
   </si>
@@ -7953,6 +7953,834 @@
   </si>
   <si>
     <t xml:space="preserve">h-CoV-19/USA/VSP1975/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2206/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2207/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2208/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2209/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2210/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2211/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2212/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2213/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2214/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2215/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2216/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2218/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2219/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2220/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2221/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2222/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2224/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2225/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2226/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2227/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2228/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2229/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2230/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2231/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2232/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2233/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2234/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2235/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2236/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2237/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2238/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2239/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2240/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2241/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2242/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2243/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2244/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2245/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2246/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2247/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2248/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2249/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2250/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2251/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2252/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2253/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2254/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2255/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2256/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2258/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2259/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2260/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2261/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2262/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2263/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2264/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2265/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2266/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2267/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2268/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2269/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2271/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2272/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2273/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2274/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2275/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2276/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2277/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2278/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2279/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2280/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2281/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2282/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2283/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2284/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2285/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2286/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2287/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2288/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2289/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2290/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2291/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2292/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2293/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2294/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-1084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2295/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherry_Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample_87_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2394/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell culture samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample_87_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2395/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample_87_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP2396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h-CoV-19/USA/VSP2396/2021</t>
   </si>
 </sst>
 </file>
@@ -31970,7 +32798,7 @@
         <v>2635</v>
       </c>
       <c r="C821" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D821" t="s">
         <v>2636</v>
@@ -31979,7 +32807,7 @@
         <v>2637</v>
       </c>
       <c r="F821" t="n">
-        <v>1934</v>
+        <v>2601</v>
       </c>
       <c r="G821" t="s">
         <v>2638</v>
@@ -32047,6 +32875,2587 @@
       </c>
       <c r="I823" t="s">
         <v>2640</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>426</v>
+      </c>
+      <c r="B824" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C824" t="s">
+        <v>11</v>
+      </c>
+      <c r="D824" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E824" t="s">
+        <v>2649</v>
+      </c>
+      <c r="F824" t="n">
+        <v>8846</v>
+      </c>
+      <c r="G824" t="s">
+        <v>572</v>
+      </c>
+      <c r="H824" t="s">
+        <v>2650</v>
+      </c>
+      <c r="I824" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s">
+        <v>426</v>
+      </c>
+      <c r="B825" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C825" t="s">
+        <v>11</v>
+      </c>
+      <c r="D825" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E825" t="s">
+        <v>2652</v>
+      </c>
+      <c r="F825" t="n">
+        <v>10573</v>
+      </c>
+      <c r="G825" t="s">
+        <v>351</v>
+      </c>
+      <c r="H825" t="s">
+        <v>2653</v>
+      </c>
+      <c r="I825" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s">
+        <v>426</v>
+      </c>
+      <c r="B826" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C826" t="s">
+        <v>11</v>
+      </c>
+      <c r="D826" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E826" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F826" t="n">
+        <v>8355</v>
+      </c>
+      <c r="G826" t="s">
+        <v>568</v>
+      </c>
+      <c r="H826" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I826" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>426</v>
+      </c>
+      <c r="B827" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C827" t="s">
+        <v>11</v>
+      </c>
+      <c r="D827" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E827" t="s">
+        <v>2658</v>
+      </c>
+      <c r="F827" t="n">
+        <v>9186</v>
+      </c>
+      <c r="G827" t="s">
+        <v>351</v>
+      </c>
+      <c r="H827" t="s">
+        <v>2659</v>
+      </c>
+      <c r="I827" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>426</v>
+      </c>
+      <c r="B828" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C828" t="s">
+        <v>11</v>
+      </c>
+      <c r="D828" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E828" t="s">
+        <v>2661</v>
+      </c>
+      <c r="F828" t="n">
+        <v>8082</v>
+      </c>
+      <c r="G828" t="s">
+        <v>351</v>
+      </c>
+      <c r="H828" t="s">
+        <v>2662</v>
+      </c>
+      <c r="I828" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>426</v>
+      </c>
+      <c r="B829" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C829" t="s">
+        <v>11</v>
+      </c>
+      <c r="D829" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E829" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F829" t="n">
+        <v>8655</v>
+      </c>
+      <c r="G829" t="s">
+        <v>351</v>
+      </c>
+      <c r="H829" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I829" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s">
+        <v>426</v>
+      </c>
+      <c r="B830" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C830" t="s">
+        <v>11</v>
+      </c>
+      <c r="D830" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E830" t="s">
+        <v>2667</v>
+      </c>
+      <c r="F830" t="n">
+        <v>3639</v>
+      </c>
+      <c r="G830" t="s">
+        <v>351</v>
+      </c>
+      <c r="H830" t="s">
+        <v>2668</v>
+      </c>
+      <c r="I830" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s">
+        <v>426</v>
+      </c>
+      <c r="B831" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C831" t="s">
+        <v>11</v>
+      </c>
+      <c r="D831" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E831" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F831" t="n">
+        <v>7131</v>
+      </c>
+      <c r="G831" t="s">
+        <v>351</v>
+      </c>
+      <c r="H831" t="s">
+        <v>2671</v>
+      </c>
+      <c r="I831" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s">
+        <v>426</v>
+      </c>
+      <c r="B832" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C832" t="s">
+        <v>11</v>
+      </c>
+      <c r="D832" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E832" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F832" t="n">
+        <v>6887</v>
+      </c>
+      <c r="G832" t="s">
+        <v>351</v>
+      </c>
+      <c r="H832" t="s">
+        <v>2674</v>
+      </c>
+      <c r="I832" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s">
+        <v>426</v>
+      </c>
+      <c r="B833" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C833" t="s">
+        <v>11</v>
+      </c>
+      <c r="D833" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E833" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F833" t="n">
+        <v>8262</v>
+      </c>
+      <c r="G833" t="s">
+        <v>351</v>
+      </c>
+      <c r="H833" t="s">
+        <v>2677</v>
+      </c>
+      <c r="I833" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s">
+        <v>426</v>
+      </c>
+      <c r="B834" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C834" t="s">
+        <v>11</v>
+      </c>
+      <c r="D834" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E834" t="s">
+        <v>2679</v>
+      </c>
+      <c r="F834" t="n">
+        <v>7523</v>
+      </c>
+      <c r="G834" t="s">
+        <v>351</v>
+      </c>
+      <c r="H834" t="s">
+        <v>2680</v>
+      </c>
+      <c r="I834" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s">
+        <v>426</v>
+      </c>
+      <c r="B835" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C835" t="s">
+        <v>11</v>
+      </c>
+      <c r="D835" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E835" t="s">
+        <v>2682</v>
+      </c>
+      <c r="F835" t="n">
+        <v>8578</v>
+      </c>
+      <c r="G835" t="s">
+        <v>351</v>
+      </c>
+      <c r="H835" t="s">
+        <v>2683</v>
+      </c>
+      <c r="I835" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s">
+        <v>426</v>
+      </c>
+      <c r="B836" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C836" t="s">
+        <v>11</v>
+      </c>
+      <c r="D836" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E836" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F836" t="n">
+        <v>7520</v>
+      </c>
+      <c r="G836" t="s">
+        <v>351</v>
+      </c>
+      <c r="H836" t="s">
+        <v>2686</v>
+      </c>
+      <c r="I836" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s">
+        <v>426</v>
+      </c>
+      <c r="B837" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C837" t="s">
+        <v>11</v>
+      </c>
+      <c r="D837" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E837" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F837" t="n">
+        <v>8113</v>
+      </c>
+      <c r="G837" t="s">
+        <v>568</v>
+      </c>
+      <c r="H837" t="s">
+        <v>2690</v>
+      </c>
+      <c r="I837" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s">
+        <v>426</v>
+      </c>
+      <c r="B838" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C838" t="s">
+        <v>11</v>
+      </c>
+      <c r="D838" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E838" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F838" t="n">
+        <v>5560</v>
+      </c>
+      <c r="G838" t="s">
+        <v>351</v>
+      </c>
+      <c r="H838" t="s">
+        <v>2693</v>
+      </c>
+      <c r="I838" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s">
+        <v>426</v>
+      </c>
+      <c r="B839" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C839" t="s">
+        <v>11</v>
+      </c>
+      <c r="D839" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E839" t="s">
+        <v>2695</v>
+      </c>
+      <c r="F839" t="n">
+        <v>6329</v>
+      </c>
+      <c r="G839" t="s">
+        <v>351</v>
+      </c>
+      <c r="H839" t="s">
+        <v>2696</v>
+      </c>
+      <c r="I839" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s">
+        <v>426</v>
+      </c>
+      <c r="B840" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C840" t="s">
+        <v>11</v>
+      </c>
+      <c r="D840" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E840" t="s">
+        <v>2698</v>
+      </c>
+      <c r="F840" t="n">
+        <v>6449</v>
+      </c>
+      <c r="G840" t="s">
+        <v>568</v>
+      </c>
+      <c r="H840" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I840" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s">
+        <v>426</v>
+      </c>
+      <c r="B841" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C841" t="s">
+        <v>11</v>
+      </c>
+      <c r="D841" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E841" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F841" t="n">
+        <v>7312</v>
+      </c>
+      <c r="G841" t="s">
+        <v>351</v>
+      </c>
+      <c r="H841" t="s">
+        <v>2702</v>
+      </c>
+      <c r="I841" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s">
+        <v>426</v>
+      </c>
+      <c r="B842" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C842" t="s">
+        <v>11</v>
+      </c>
+      <c r="D842" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E842" t="s">
+        <v>2704</v>
+      </c>
+      <c r="F842" t="n">
+        <v>7847</v>
+      </c>
+      <c r="G842" t="s">
+        <v>351</v>
+      </c>
+      <c r="H842" t="s">
+        <v>2705</v>
+      </c>
+      <c r="I842" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s">
+        <v>426</v>
+      </c>
+      <c r="B843" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C843" t="s">
+        <v>11</v>
+      </c>
+      <c r="D843" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E843" t="s">
+        <v>2707</v>
+      </c>
+      <c r="F843" t="n">
+        <v>5696</v>
+      </c>
+      <c r="G843" t="s">
+        <v>351</v>
+      </c>
+      <c r="H843" t="s">
+        <v>2708</v>
+      </c>
+      <c r="I843" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s">
+        <v>426</v>
+      </c>
+      <c r="B844" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C844" t="s">
+        <v>11</v>
+      </c>
+      <c r="D844" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E844" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F844" t="n">
+        <v>7556</v>
+      </c>
+      <c r="G844" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H844" t="s">
+        <v>2711</v>
+      </c>
+      <c r="I844" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s">
+        <v>426</v>
+      </c>
+      <c r="B845" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C845" t="s">
+        <v>11</v>
+      </c>
+      <c r="D845" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E845" t="s">
+        <v>2714</v>
+      </c>
+      <c r="F845" t="n">
+        <v>8484</v>
+      </c>
+      <c r="G845" t="s">
+        <v>2575</v>
+      </c>
+      <c r="H845" t="s">
+        <v>2715</v>
+      </c>
+      <c r="I845" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s">
+        <v>426</v>
+      </c>
+      <c r="B846" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C846" t="s">
+        <v>11</v>
+      </c>
+      <c r="D846" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E846" t="s">
+        <v>2717</v>
+      </c>
+      <c r="F846" t="n">
+        <v>8506</v>
+      </c>
+      <c r="G846" t="s">
+        <v>351</v>
+      </c>
+      <c r="H846" t="s">
+        <v>2718</v>
+      </c>
+      <c r="I846" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s">
+        <v>426</v>
+      </c>
+      <c r="B847" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C847" t="s">
+        <v>11</v>
+      </c>
+      <c r="D847" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E847" t="s">
+        <v>2720</v>
+      </c>
+      <c r="F847" t="n">
+        <v>8318</v>
+      </c>
+      <c r="G847" t="s">
+        <v>572</v>
+      </c>
+      <c r="H847" t="s">
+        <v>2721</v>
+      </c>
+      <c r="I847" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s">
+        <v>426</v>
+      </c>
+      <c r="B848" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C848" t="s">
+        <v>11</v>
+      </c>
+      <c r="D848" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E848" t="s">
+        <v>2723</v>
+      </c>
+      <c r="F848" t="n">
+        <v>7784</v>
+      </c>
+      <c r="G848" t="s">
+        <v>351</v>
+      </c>
+      <c r="H848" t="s">
+        <v>2724</v>
+      </c>
+      <c r="I848" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>426</v>
+      </c>
+      <c r="B849" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C849" t="s">
+        <v>11</v>
+      </c>
+      <c r="D849" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E849" t="s">
+        <v>2726</v>
+      </c>
+      <c r="F849" t="n">
+        <v>6477</v>
+      </c>
+      <c r="G849" t="s">
+        <v>351</v>
+      </c>
+      <c r="H849" t="s">
+        <v>2727</v>
+      </c>
+      <c r="I849" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>426</v>
+      </c>
+      <c r="B850" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C850" t="s">
+        <v>11</v>
+      </c>
+      <c r="D850" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E850" t="s">
+        <v>2729</v>
+      </c>
+      <c r="F850" t="n">
+        <v>7584</v>
+      </c>
+      <c r="G850" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H850" t="s">
+        <v>2730</v>
+      </c>
+      <c r="I850" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s">
+        <v>426</v>
+      </c>
+      <c r="B851" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C851" t="s">
+        <v>11</v>
+      </c>
+      <c r="D851" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E851" t="s">
+        <v>2732</v>
+      </c>
+      <c r="F851" t="n">
+        <v>7097</v>
+      </c>
+      <c r="G851" t="s">
+        <v>351</v>
+      </c>
+      <c r="H851" t="s">
+        <v>2733</v>
+      </c>
+      <c r="I851" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s">
+        <v>426</v>
+      </c>
+      <c r="B852" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C852" t="s">
+        <v>11</v>
+      </c>
+      <c r="D852" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E852" t="s">
+        <v>2735</v>
+      </c>
+      <c r="F852" t="n">
+        <v>4327</v>
+      </c>
+      <c r="G852" t="s">
+        <v>351</v>
+      </c>
+      <c r="H852" t="s">
+        <v>2736</v>
+      </c>
+      <c r="I852" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s">
+        <v>426</v>
+      </c>
+      <c r="B853" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C853" t="s">
+        <v>11</v>
+      </c>
+      <c r="D853" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E853" t="s">
+        <v>2738</v>
+      </c>
+      <c r="F853" t="n">
+        <v>6337</v>
+      </c>
+      <c r="G853" t="s">
+        <v>351</v>
+      </c>
+      <c r="H853" t="s">
+        <v>2739</v>
+      </c>
+      <c r="I853" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s">
+        <v>426</v>
+      </c>
+      <c r="B854" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C854" t="s">
+        <v>11</v>
+      </c>
+      <c r="D854" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E854" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F854" t="n">
+        <v>7544</v>
+      </c>
+      <c r="G854" t="s">
+        <v>351</v>
+      </c>
+      <c r="H854" t="s">
+        <v>2742</v>
+      </c>
+      <c r="I854" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s">
+        <v>426</v>
+      </c>
+      <c r="B855" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C855" t="s">
+        <v>11</v>
+      </c>
+      <c r="D855" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E855" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F855" t="n">
+        <v>7354</v>
+      </c>
+      <c r="G855" t="s">
+        <v>351</v>
+      </c>
+      <c r="H855" t="s">
+        <v>2745</v>
+      </c>
+      <c r="I855" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>426</v>
+      </c>
+      <c r="B856" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C856" t="s">
+        <v>11</v>
+      </c>
+      <c r="D856" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E856" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F856" t="n">
+        <v>7913</v>
+      </c>
+      <c r="G856" t="s">
+        <v>351</v>
+      </c>
+      <c r="H856" t="s">
+        <v>2748</v>
+      </c>
+      <c r="I856" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s">
+        <v>426</v>
+      </c>
+      <c r="B857" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C857" t="s">
+        <v>11</v>
+      </c>
+      <c r="D857" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E857" t="s">
+        <v>2751</v>
+      </c>
+      <c r="F857" t="n">
+        <v>7865</v>
+      </c>
+      <c r="G857" t="s">
+        <v>351</v>
+      </c>
+      <c r="H857" t="s">
+        <v>2752</v>
+      </c>
+      <c r="I857" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s">
+        <v>426</v>
+      </c>
+      <c r="B858" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C858" t="s">
+        <v>11</v>
+      </c>
+      <c r="D858" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E858" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F858" t="n">
+        <v>5786</v>
+      </c>
+      <c r="G858" t="s">
+        <v>351</v>
+      </c>
+      <c r="H858" t="s">
+        <v>2755</v>
+      </c>
+      <c r="I858" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>426</v>
+      </c>
+      <c r="B859" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C859" t="s">
+        <v>11</v>
+      </c>
+      <c r="D859" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E859" t="s">
+        <v>2757</v>
+      </c>
+      <c r="F859" t="n">
+        <v>7569</v>
+      </c>
+      <c r="G859" t="s">
+        <v>351</v>
+      </c>
+      <c r="H859" t="s">
+        <v>2758</v>
+      </c>
+      <c r="I859" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="s">
+        <v>426</v>
+      </c>
+      <c r="B860" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C860" t="s">
+        <v>11</v>
+      </c>
+      <c r="D860" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E860" t="s">
+        <v>2760</v>
+      </c>
+      <c r="F860" t="n">
+        <v>6021</v>
+      </c>
+      <c r="G860" t="s">
+        <v>351</v>
+      </c>
+      <c r="H860" t="s">
+        <v>2761</v>
+      </c>
+      <c r="I860" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>426</v>
+      </c>
+      <c r="B861" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C861" t="s">
+        <v>11</v>
+      </c>
+      <c r="D861" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E861" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F861" t="n">
+        <v>5689</v>
+      </c>
+      <c r="G861" t="s">
+        <v>351</v>
+      </c>
+      <c r="H861" t="s">
+        <v>2764</v>
+      </c>
+      <c r="I861" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>426</v>
+      </c>
+      <c r="B862" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C862" t="s">
+        <v>11</v>
+      </c>
+      <c r="D862" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E862" t="s">
+        <v>2766</v>
+      </c>
+      <c r="F862" t="n">
+        <v>7014</v>
+      </c>
+      <c r="G862" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H862" t="s">
+        <v>2767</v>
+      </c>
+      <c r="I862" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>426</v>
+      </c>
+      <c r="B863" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C863" t="s">
+        <v>11</v>
+      </c>
+      <c r="D863" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E863" t="s">
+        <v>2769</v>
+      </c>
+      <c r="F863" t="n">
+        <v>634</v>
+      </c>
+      <c r="G863" t="s">
+        <v>351</v>
+      </c>
+      <c r="H863" t="s">
+        <v>2770</v>
+      </c>
+      <c r="I863" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>426</v>
+      </c>
+      <c r="B864" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C864" t="s">
+        <v>11</v>
+      </c>
+      <c r="D864" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E864" t="s">
+        <v>2772</v>
+      </c>
+      <c r="F864" t="n">
+        <v>6222</v>
+      </c>
+      <c r="G864" t="s">
+        <v>351</v>
+      </c>
+      <c r="H864" t="s">
+        <v>2773</v>
+      </c>
+      <c r="I864" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>426</v>
+      </c>
+      <c r="B865" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C865" t="s">
+        <v>11</v>
+      </c>
+      <c r="D865" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E865" t="s">
+        <v>2775</v>
+      </c>
+      <c r="F865" t="n">
+        <v>5714</v>
+      </c>
+      <c r="G865" t="s">
+        <v>351</v>
+      </c>
+      <c r="H865" t="s">
+        <v>2776</v>
+      </c>
+      <c r="I865" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>426</v>
+      </c>
+      <c r="B866" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C866" t="s">
+        <v>11</v>
+      </c>
+      <c r="D866" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E866" t="s">
+        <v>2778</v>
+      </c>
+      <c r="F866" t="n">
+        <v>5226</v>
+      </c>
+      <c r="G866" t="s">
+        <v>351</v>
+      </c>
+      <c r="H866" t="s">
+        <v>2779</v>
+      </c>
+      <c r="I866" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>426</v>
+      </c>
+      <c r="B867" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C867" t="s">
+        <v>11</v>
+      </c>
+      <c r="D867" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E867" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F867" t="n">
+        <v>7504</v>
+      </c>
+      <c r="G867" t="s">
+        <v>351</v>
+      </c>
+      <c r="H867" t="s">
+        <v>2782</v>
+      </c>
+      <c r="I867" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>426</v>
+      </c>
+      <c r="B868" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C868" t="s">
+        <v>11</v>
+      </c>
+      <c r="D868" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E868" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F868" t="n">
+        <v>6929</v>
+      </c>
+      <c r="G868" t="s">
+        <v>351</v>
+      </c>
+      <c r="H868" t="s">
+        <v>2785</v>
+      </c>
+      <c r="I868" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>426</v>
+      </c>
+      <c r="B869" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C869" t="s">
+        <v>11</v>
+      </c>
+      <c r="D869" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E869" t="s">
+        <v>2788</v>
+      </c>
+      <c r="F869" t="n">
+        <v>6878</v>
+      </c>
+      <c r="G869" t="s">
+        <v>572</v>
+      </c>
+      <c r="H869" t="s">
+        <v>2789</v>
+      </c>
+      <c r="I869" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>426</v>
+      </c>
+      <c r="B870" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C870" t="s">
+        <v>11</v>
+      </c>
+      <c r="D870" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E870" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F870" t="n">
+        <v>7072</v>
+      </c>
+      <c r="G870" t="s">
+        <v>351</v>
+      </c>
+      <c r="H870" t="s">
+        <v>2792</v>
+      </c>
+      <c r="I870" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>426</v>
+      </c>
+      <c r="B871" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C871" t="s">
+        <v>11</v>
+      </c>
+      <c r="D871" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E871" t="s">
+        <v>2794</v>
+      </c>
+      <c r="F871" t="n">
+        <v>7095</v>
+      </c>
+      <c r="G871" t="s">
+        <v>572</v>
+      </c>
+      <c r="H871" t="s">
+        <v>2795</v>
+      </c>
+      <c r="I871" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s">
+        <v>426</v>
+      </c>
+      <c r="B872" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C872" t="s">
+        <v>11</v>
+      </c>
+      <c r="D872" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E872" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F872" t="n">
+        <v>2541</v>
+      </c>
+      <c r="G872" t="s">
+        <v>351</v>
+      </c>
+      <c r="H872" t="s">
+        <v>2798</v>
+      </c>
+      <c r="I872" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s">
+        <v>426</v>
+      </c>
+      <c r="B873" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C873" t="s">
+        <v>11</v>
+      </c>
+      <c r="D873" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E873" t="s">
+        <v>2800</v>
+      </c>
+      <c r="F873" t="n">
+        <v>9311</v>
+      </c>
+      <c r="G873" t="s">
+        <v>351</v>
+      </c>
+      <c r="H873" t="s">
+        <v>2801</v>
+      </c>
+      <c r="I873" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>426</v>
+      </c>
+      <c r="B874" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C874" t="s">
+        <v>11</v>
+      </c>
+      <c r="D874" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E874" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F874" t="n">
+        <v>7062</v>
+      </c>
+      <c r="G874" t="s">
+        <v>351</v>
+      </c>
+      <c r="H874" t="s">
+        <v>2804</v>
+      </c>
+      <c r="I874" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="s">
+        <v>426</v>
+      </c>
+      <c r="B875" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C875" t="s">
+        <v>11</v>
+      </c>
+      <c r="D875" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E875" t="s">
+        <v>2806</v>
+      </c>
+      <c r="F875" t="n">
+        <v>4414</v>
+      </c>
+      <c r="G875" t="s">
+        <v>351</v>
+      </c>
+      <c r="H875" t="s">
+        <v>2807</v>
+      </c>
+      <c r="I875" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="s">
+        <v>426</v>
+      </c>
+      <c r="B876" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C876" t="s">
+        <v>11</v>
+      </c>
+      <c r="D876" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E876" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F876" t="n">
+        <v>4966</v>
+      </c>
+      <c r="G876" t="s">
+        <v>351</v>
+      </c>
+      <c r="H876" t="s">
+        <v>2810</v>
+      </c>
+      <c r="I876" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="s">
+        <v>426</v>
+      </c>
+      <c r="B877" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C877" t="s">
+        <v>11</v>
+      </c>
+      <c r="D877" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E877" t="s">
+        <v>2812</v>
+      </c>
+      <c r="F877" t="n">
+        <v>7422</v>
+      </c>
+      <c r="G877" t="s">
+        <v>351</v>
+      </c>
+      <c r="H877" t="s">
+        <v>2813</v>
+      </c>
+      <c r="I877" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="s">
+        <v>426</v>
+      </c>
+      <c r="B878" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C878" t="s">
+        <v>11</v>
+      </c>
+      <c r="D878" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E878" t="s">
+        <v>2815</v>
+      </c>
+      <c r="F878" t="n">
+        <v>7171</v>
+      </c>
+      <c r="G878" t="s">
+        <v>351</v>
+      </c>
+      <c r="H878" t="s">
+        <v>2816</v>
+      </c>
+      <c r="I878" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="s">
+        <v>426</v>
+      </c>
+      <c r="B879" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C879" t="s">
+        <v>11</v>
+      </c>
+      <c r="D879" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E879" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F879" t="n">
+        <v>7059</v>
+      </c>
+      <c r="G879" t="s">
+        <v>351</v>
+      </c>
+      <c r="H879" t="s">
+        <v>2819</v>
+      </c>
+      <c r="I879" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="s">
+        <v>426</v>
+      </c>
+      <c r="B880" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C880" t="s">
+        <v>11</v>
+      </c>
+      <c r="D880" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E880" t="s">
+        <v>2821</v>
+      </c>
+      <c r="F880" t="n">
+        <v>7788</v>
+      </c>
+      <c r="G880" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H880" t="s">
+        <v>2822</v>
+      </c>
+      <c r="I880" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="s">
+        <v>426</v>
+      </c>
+      <c r="B881" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C881" t="s">
+        <v>11</v>
+      </c>
+      <c r="D881" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E881" t="s">
+        <v>2824</v>
+      </c>
+      <c r="F881" t="n">
+        <v>3132</v>
+      </c>
+      <c r="G881" t="s">
+        <v>351</v>
+      </c>
+      <c r="H881" t="s">
+        <v>2825</v>
+      </c>
+      <c r="I881" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="s">
+        <v>426</v>
+      </c>
+      <c r="B882" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C882" t="s">
+        <v>11</v>
+      </c>
+      <c r="D882" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E882" t="s">
+        <v>2827</v>
+      </c>
+      <c r="F882" t="n">
+        <v>6013</v>
+      </c>
+      <c r="G882" t="s">
+        <v>351</v>
+      </c>
+      <c r="H882" t="s">
+        <v>2828</v>
+      </c>
+      <c r="I882" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="s">
+        <v>426</v>
+      </c>
+      <c r="B883" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C883" t="s">
+        <v>11</v>
+      </c>
+      <c r="D883" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E883" t="s">
+        <v>2830</v>
+      </c>
+      <c r="F883" t="n">
+        <v>7033</v>
+      </c>
+      <c r="G883" t="s">
+        <v>351</v>
+      </c>
+      <c r="H883" t="s">
+        <v>2831</v>
+      </c>
+      <c r="I883" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="s">
+        <v>426</v>
+      </c>
+      <c r="B884" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C884" t="s">
+        <v>11</v>
+      </c>
+      <c r="D884" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E884" t="s">
+        <v>2833</v>
+      </c>
+      <c r="F884" t="n">
+        <v>7001</v>
+      </c>
+      <c r="G884" t="s">
+        <v>351</v>
+      </c>
+      <c r="H884" t="s">
+        <v>2834</v>
+      </c>
+      <c r="I884" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="s">
+        <v>426</v>
+      </c>
+      <c r="B885" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C885" t="s">
+        <v>11</v>
+      </c>
+      <c r="D885" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E885" t="s">
+        <v>2836</v>
+      </c>
+      <c r="F885" t="n">
+        <v>5821</v>
+      </c>
+      <c r="G885" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H885" t="s">
+        <v>2837</v>
+      </c>
+      <c r="I885" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="s">
+        <v>426</v>
+      </c>
+      <c r="B886" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C886" t="s">
+        <v>11</v>
+      </c>
+      <c r="D886" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E886" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F886" t="n">
+        <v>6875</v>
+      </c>
+      <c r="G886" t="s">
+        <v>351</v>
+      </c>
+      <c r="H886" t="s">
+        <v>2840</v>
+      </c>
+      <c r="I886" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="s">
+        <v>426</v>
+      </c>
+      <c r="B887" t="s">
+        <v>2841</v>
+      </c>
+      <c r="C887" t="s">
+        <v>11</v>
+      </c>
+      <c r="D887" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E887" t="s">
+        <v>2842</v>
+      </c>
+      <c r="F887" t="n">
+        <v>7252</v>
+      </c>
+      <c r="G887" t="s">
+        <v>273</v>
+      </c>
+      <c r="H887" t="s">
+        <v>2843</v>
+      </c>
+      <c r="I887" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="s">
+        <v>426</v>
+      </c>
+      <c r="B888" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C888" t="s">
+        <v>11</v>
+      </c>
+      <c r="D888" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E888" t="s">
+        <v>2845</v>
+      </c>
+      <c r="F888" t="n">
+        <v>7185</v>
+      </c>
+      <c r="G888" t="s">
+        <v>572</v>
+      </c>
+      <c r="H888" t="s">
+        <v>2846</v>
+      </c>
+      <c r="I888" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="s">
+        <v>426</v>
+      </c>
+      <c r="B889" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C889" t="s">
+        <v>11</v>
+      </c>
+      <c r="D889" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E889" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F889" t="n">
+        <v>2398</v>
+      </c>
+      <c r="G889" t="s">
+        <v>814</v>
+      </c>
+      <c r="H889" t="s">
+        <v>2849</v>
+      </c>
+      <c r="I889" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="s">
+        <v>426</v>
+      </c>
+      <c r="B890" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C890" t="s">
+        <v>11</v>
+      </c>
+      <c r="D890" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E890" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F890" t="n">
+        <v>7972</v>
+      </c>
+      <c r="G890" t="s">
+        <v>351</v>
+      </c>
+      <c r="H890" t="s">
+        <v>2852</v>
+      </c>
+      <c r="I890" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="s">
+        <v>426</v>
+      </c>
+      <c r="B891" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C891" t="s">
+        <v>11</v>
+      </c>
+      <c r="D891" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E891" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F891" t="n">
+        <v>6054</v>
+      </c>
+      <c r="G891" t="s">
+        <v>351</v>
+      </c>
+      <c r="H891" t="s">
+        <v>2855</v>
+      </c>
+      <c r="I891" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="s">
+        <v>426</v>
+      </c>
+      <c r="B892" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C892" t="s">
+        <v>11</v>
+      </c>
+      <c r="D892" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E892" t="s">
+        <v>2857</v>
+      </c>
+      <c r="F892" t="n">
+        <v>7178</v>
+      </c>
+      <c r="G892" t="s">
+        <v>351</v>
+      </c>
+      <c r="H892" t="s">
+        <v>2858</v>
+      </c>
+      <c r="I892" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="s">
+        <v>426</v>
+      </c>
+      <c r="B893" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C893" t="s">
+        <v>11</v>
+      </c>
+      <c r="D893" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E893" t="s">
+        <v>2860</v>
+      </c>
+      <c r="F893" t="n">
+        <v>6823</v>
+      </c>
+      <c r="G893" t="s">
+        <v>441</v>
+      </c>
+      <c r="H893" t="s">
+        <v>2861</v>
+      </c>
+      <c r="I893" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="s">
+        <v>426</v>
+      </c>
+      <c r="B894" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C894" t="s">
+        <v>11</v>
+      </c>
+      <c r="D894" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E894" t="s">
+        <v>2863</v>
+      </c>
+      <c r="F894" t="n">
+        <v>6930</v>
+      </c>
+      <c r="G894" t="s">
+        <v>351</v>
+      </c>
+      <c r="H894" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I894" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="s">
+        <v>426</v>
+      </c>
+      <c r="B895" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C895" t="s">
+        <v>11</v>
+      </c>
+      <c r="D895" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E895" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F895" t="n">
+        <v>5854</v>
+      </c>
+      <c r="G895" t="s">
+        <v>572</v>
+      </c>
+      <c r="H895" t="s">
+        <v>2867</v>
+      </c>
+      <c r="I895" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="s">
+        <v>426</v>
+      </c>
+      <c r="B896" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C896" t="s">
+        <v>11</v>
+      </c>
+      <c r="D896" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E896" t="s">
+        <v>2869</v>
+      </c>
+      <c r="F896" t="n">
+        <v>7591</v>
+      </c>
+      <c r="G896" t="s">
+        <v>351</v>
+      </c>
+      <c r="H896" t="s">
+        <v>2870</v>
+      </c>
+      <c r="I896" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="s">
+        <v>426</v>
+      </c>
+      <c r="B897" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C897" t="s">
+        <v>11</v>
+      </c>
+      <c r="D897" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E897" t="s">
+        <v>2872</v>
+      </c>
+      <c r="F897" t="n">
+        <v>6429</v>
+      </c>
+      <c r="G897" t="s">
+        <v>351</v>
+      </c>
+      <c r="H897" t="s">
+        <v>2873</v>
+      </c>
+      <c r="I897" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="s">
+        <v>426</v>
+      </c>
+      <c r="B898" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C898" t="s">
+        <v>11</v>
+      </c>
+      <c r="D898" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E898" t="s">
+        <v>2875</v>
+      </c>
+      <c r="F898" t="n">
+        <v>6711</v>
+      </c>
+      <c r="G898" t="s">
+        <v>441</v>
+      </c>
+      <c r="H898" t="s">
+        <v>2876</v>
+      </c>
+      <c r="I898" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="s">
+        <v>426</v>
+      </c>
+      <c r="B899" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C899" t="s">
+        <v>11</v>
+      </c>
+      <c r="D899" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E899" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F899" t="n">
+        <v>7533</v>
+      </c>
+      <c r="G899" t="s">
+        <v>351</v>
+      </c>
+      <c r="H899" t="s">
+        <v>2879</v>
+      </c>
+      <c r="I899" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="s">
+        <v>426</v>
+      </c>
+      <c r="B900" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C900" t="s">
+        <v>11</v>
+      </c>
+      <c r="D900" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E900" t="s">
+        <v>2881</v>
+      </c>
+      <c r="F900" t="n">
+        <v>6082</v>
+      </c>
+      <c r="G900" t="s">
+        <v>351</v>
+      </c>
+      <c r="H900" t="s">
+        <v>2882</v>
+      </c>
+      <c r="I900" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="s">
+        <v>426</v>
+      </c>
+      <c r="B901" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C901" t="s">
+        <v>11</v>
+      </c>
+      <c r="D901" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E901" t="s">
+        <v>2884</v>
+      </c>
+      <c r="F901" t="n">
+        <v>5826</v>
+      </c>
+      <c r="G901" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H901" t="s">
+        <v>2885</v>
+      </c>
+      <c r="I901" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="s">
+        <v>426</v>
+      </c>
+      <c r="B902" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C902" t="s">
+        <v>11</v>
+      </c>
+      <c r="D902" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E902" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F902" t="n">
+        <v>7796</v>
+      </c>
+      <c r="G902" t="s">
+        <v>351</v>
+      </c>
+      <c r="H902" t="s">
+        <v>2888</v>
+      </c>
+      <c r="I902" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="s">
+        <v>426</v>
+      </c>
+      <c r="B903" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C903" t="s">
+        <v>11</v>
+      </c>
+      <c r="D903" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E903" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F903" t="n">
+        <v>5612</v>
+      </c>
+      <c r="G903" t="s">
+        <v>351</v>
+      </c>
+      <c r="H903" t="s">
+        <v>2891</v>
+      </c>
+      <c r="I903" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="s">
+        <v>426</v>
+      </c>
+      <c r="B904" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C904" t="s">
+        <v>11</v>
+      </c>
+      <c r="D904" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E904" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F904" t="n">
+        <v>7823</v>
+      </c>
+      <c r="G904" t="s">
+        <v>351</v>
+      </c>
+      <c r="H904" t="s">
+        <v>2894</v>
+      </c>
+      <c r="I904" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="s">
+        <v>426</v>
+      </c>
+      <c r="B905" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C905" t="s">
+        <v>11</v>
+      </c>
+      <c r="D905" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E905" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F905" t="n">
+        <v>6828</v>
+      </c>
+      <c r="G905" t="s">
+        <v>351</v>
+      </c>
+      <c r="H905" t="s">
+        <v>2897</v>
+      </c>
+      <c r="I905" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="s">
+        <v>426</v>
+      </c>
+      <c r="B906" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C906" t="s">
+        <v>11</v>
+      </c>
+      <c r="D906" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E906" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F906" t="n">
+        <v>7058</v>
+      </c>
+      <c r="G906" t="s">
+        <v>351</v>
+      </c>
+      <c r="H906" t="s">
+        <v>2900</v>
+      </c>
+      <c r="I906" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="s">
+        <v>426</v>
+      </c>
+      <c r="B907" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C907" t="s">
+        <v>11</v>
+      </c>
+      <c r="D907" t="s">
+        <v>2902</v>
+      </c>
+      <c r="E907" t="s">
+        <v>2903</v>
+      </c>
+      <c r="F907" t="n">
+        <v>7256</v>
+      </c>
+      <c r="G907" t="s">
+        <v>572</v>
+      </c>
+      <c r="H907" t="s">
+        <v>2904</v>
+      </c>
+      <c r="I907" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="s">
+        <v>426</v>
+      </c>
+      <c r="B908" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C908" t="s">
+        <v>11</v>
+      </c>
+      <c r="D908" t="s">
+        <v>2902</v>
+      </c>
+      <c r="E908" t="s">
+        <v>2906</v>
+      </c>
+      <c r="F908" t="n">
+        <v>4273</v>
+      </c>
+      <c r="G908" t="s">
+        <v>351</v>
+      </c>
+      <c r="H908" t="s">
+        <v>2907</v>
+      </c>
+      <c r="I908" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="s">
+        <v>426</v>
+      </c>
+      <c r="B909" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C909" t="s">
+        <v>11</v>
+      </c>
+      <c r="D909" t="s">
+        <v>2902</v>
+      </c>
+      <c r="E909" t="s">
+        <v>2909</v>
+      </c>
+      <c r="F909" t="n">
+        <v>6841</v>
+      </c>
+      <c r="G909" t="s">
+        <v>351</v>
+      </c>
+      <c r="H909" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I909" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B910" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C910" t="s">
+        <v>11</v>
+      </c>
+      <c r="D910" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E910" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F910" t="n">
+        <v>7551</v>
+      </c>
+      <c r="G910" t="s">
+        <v>2638</v>
+      </c>
+      <c r="H910" t="s">
+        <v>2915</v>
+      </c>
+      <c r="I910" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B911" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C911" t="s">
+        <v>11</v>
+      </c>
+      <c r="D911" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E911" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F911" t="n">
+        <v>6070</v>
+      </c>
+      <c r="G911" t="s">
+        <v>2638</v>
+      </c>
+      <c r="H911" t="s">
+        <v>2919</v>
+      </c>
+      <c r="I911" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B912" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C912" t="s">
+        <v>11</v>
+      </c>
+      <c r="D912" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E912" t="s">
+        <v>2921</v>
+      </c>
+      <c r="F912" t="n">
+        <v>9125</v>
+      </c>
+      <c r="G912" t="s">
+        <v>2638</v>
+      </c>
+      <c r="H912" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I912" t="s">
+        <v>2916</v>
       </c>
     </row>
   </sheetData>
